--- a/outputs/COVID_19_RISK_ASSESSMENT2.xlsx
+++ b/outputs/COVID_19_RISK_ASSESSMENT2.xlsx
@@ -278,14 +278,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -304,6 +296,13 @@
       <b/>
       <sz val="14"/>
       <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -435,9 +434,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -506,22 +502,19 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,10 +523,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -554,6 +547,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="7"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,28 +864,28 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U44" sqref="U44"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.140625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="58.7109375" style="39" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="39" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.140625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" style="37" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="37" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
+      <c r="A1" s="5"/>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
@@ -925,24 +924,24 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -951,39 +950,39 @@
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="38">
         <v>124</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="38">
         <v>55</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="38">
         <v>53</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="38">
         <v>35</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="38">
         <v>108</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="38">
         <v>41</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="38">
         <v>87</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="38">
         <v>380</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="38">
         <v>80</v>
       </c>
-      <c r="M3" s="40">
+      <c r="M3" s="38">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -992,39 +991,39 @@
       <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="38">
         <v>102</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="38">
         <v>79</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="38">
         <v>37</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="38">
         <v>48</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="38">
         <v>192</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="38">
         <v>59</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="38">
         <v>43</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="38">
         <v>805</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="38">
         <v>127</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="38">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1033,39 +1032,39 @@
       <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="38">
         <v>23</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="38">
         <v>16</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="38">
         <v>1</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="38">
         <v>5</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="38">
         <v>15</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="38">
         <v>3</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="38">
         <v>7</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="38">
         <v>65</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="38">
         <v>7</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="38">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1074,39 +1073,39 @@
       <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="38">
         <v>125</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="38">
         <v>81</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="38">
         <v>48</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="38">
         <v>41</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="38">
         <v>234</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="38">
         <v>55</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="38">
         <v>84</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="38">
         <v>908</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="38">
         <v>158</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="38">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1115,39 +1114,39 @@
       <c r="C7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="38">
         <v>395</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="38">
         <v>141</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="38">
         <v>159</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="38">
         <v>82</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="38">
         <v>575</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="38">
         <v>148</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="38">
         <v>177</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="38">
         <v>2150</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="38">
         <v>418</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="38">
         <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1156,39 +1155,39 @@
       <c r="C8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="38">
         <v>14</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="38">
         <v>15</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="38">
         <v>2</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="38">
         <v>5</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="38">
         <v>23</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="38">
         <v>4</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="38">
         <v>5</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="38">
         <v>180</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="38">
         <v>15</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M8" s="38">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1197,715 +1196,715 @@
       <c r="C9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="38">
         <v>2188</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="38">
         <v>1087</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="38">
         <v>729</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="38">
         <v>423</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="38">
         <v>2045</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="38">
         <v>745</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="38">
         <v>1051</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="38">
         <v>8623</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="38">
         <v>1572</v>
       </c>
-      <c r="M9" s="40">
+      <c r="M9" s="38">
         <v>732</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="38">
         <v>72</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="38">
         <v>37</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="38">
         <v>36</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="38">
         <v>20</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="38">
         <v>73</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="38">
         <v>32</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="38">
         <v>57</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="38">
         <v>232</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="38">
         <v>54</v>
       </c>
-      <c r="M12" s="40">
+      <c r="M12" s="38">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="38">
         <v>114</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="38">
         <v>46</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="38">
         <v>49</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="38">
         <v>28</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="38">
         <v>90</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="38">
         <v>38</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="38">
         <v>79</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="38">
         <v>319</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="38">
         <v>70</v>
       </c>
-      <c r="M13" s="40">
+      <c r="M13" s="38">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="38">
         <v>120</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="38">
         <v>51</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="38">
         <v>49</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="38">
         <v>34</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="38">
         <v>106</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="38">
         <v>40</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="38">
         <v>83</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="38">
         <v>358</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="38">
         <v>76</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="38">
         <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="38">
         <v>120</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="38">
         <v>49</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="38">
         <v>49</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="38">
         <v>34</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="38">
         <v>106</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="38">
         <v>40</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="38">
         <v>82</v>
       </c>
-      <c r="K15" s="40">
+      <c r="K15" s="38">
         <v>348</v>
       </c>
-      <c r="L15" s="40">
+      <c r="L15" s="38">
         <v>73</v>
       </c>
-      <c r="M15" s="40">
+      <c r="M15" s="38">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="38">
         <v>52</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="38">
         <v>40</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="38">
         <v>38</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="38">
         <v>24</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="38">
         <v>64</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="38">
         <v>38</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="38">
         <v>70</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="38">
         <v>180</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="38">
         <v>48</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="38">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="38">
         <v>181</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="38">
         <v>98</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="38">
         <v>102</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="38">
         <v>64</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="38">
         <v>161</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="38">
         <v>92</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="38">
         <v>182</v>
       </c>
-      <c r="K17" s="40">
+      <c r="K17" s="38">
         <v>498</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="38">
         <v>131</v>
       </c>
-      <c r="M17" s="40">
+      <c r="M17" s="38">
         <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="38">
         <v>119</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="38">
         <v>51</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="38">
         <v>50</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="38">
         <v>34</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="38">
         <v>104</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="38">
         <v>38</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="38">
         <v>82</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="38">
         <v>321</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="38">
         <v>72</v>
       </c>
-      <c r="M18" s="40">
+      <c r="M18" s="38">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="38">
         <v>110</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="38">
         <v>49</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="38">
         <v>48</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="38">
         <v>34</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="38">
         <v>103</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="38">
         <v>39</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="38">
         <v>83</v>
       </c>
-      <c r="K20" s="40">
+      <c r="K20" s="38">
         <v>340</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="38">
         <v>79</v>
       </c>
-      <c r="M20" s="40">
+      <c r="M20" s="38">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="38">
         <v>108</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="38">
         <v>47</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="38">
         <v>48</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="38">
         <v>34</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="38">
         <v>102</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="38">
         <v>39</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="38">
         <v>82</v>
       </c>
-      <c r="K21" s="40">
+      <c r="K21" s="38">
         <v>330</v>
       </c>
-      <c r="L21" s="40">
+      <c r="L21" s="38">
         <v>74</v>
       </c>
-      <c r="M21" s="40">
+      <c r="M21" s="38">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="38">
         <v>58</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="38">
         <v>44</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="38">
         <v>36</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="38">
         <v>24</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="38">
         <v>70</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="38">
         <v>34</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="38">
         <v>80</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="38">
         <v>190</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="38">
         <v>44</v>
       </c>
-      <c r="M22" s="40">
+      <c r="M22" s="38">
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="38">
         <v>2</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="38">
         <v>2</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="38">
         <v>3</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="38">
         <v>2</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="38">
         <v>3</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="38">
         <v>0</v>
       </c>
-      <c r="J23" s="40">
+      <c r="J23" s="38">
         <v>4</v>
       </c>
-      <c r="K23" s="40">
+      <c r="K23" s="38">
         <v>13</v>
       </c>
-      <c r="L23" s="40">
+      <c r="L23" s="38">
         <v>1</v>
       </c>
-      <c r="M23" s="40">
+      <c r="M23" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="38">
         <v>109</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="38">
         <v>46</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="38">
         <v>48</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="38">
         <v>34</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="38">
         <v>102</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="38">
         <v>38</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="38">
         <v>80</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="38">
         <v>312</v>
       </c>
-      <c r="L24" s="40">
+      <c r="L24" s="38">
         <v>73</v>
       </c>
-      <c r="M24" s="40">
+      <c r="M24" s="38">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="43" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="38">
         <v>3</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="38">
         <v>4</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="38">
         <v>2</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26" s="38">
         <v>1</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="38">
         <v>6</v>
       </c>
-      <c r="I26" s="40">
+      <c r="I26" s="38">
         <v>1</v>
       </c>
-      <c r="J26" s="40">
+      <c r="J26" s="38">
         <v>1</v>
       </c>
-      <c r="K26" s="40">
+      <c r="K26" s="38">
         <v>19</v>
       </c>
-      <c r="L26" s="40">
+      <c r="L26" s="38">
         <v>2</v>
       </c>
-      <c r="M26" s="40">
+      <c r="M26" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27" s="38">
         <v>9</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="38">
         <v>6</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="38">
         <v>4</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="38">
         <v>3</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="38">
         <v>13</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27" s="38">
         <v>4</v>
       </c>
-      <c r="J27" s="40">
+      <c r="J27" s="38">
         <v>4</v>
       </c>
-      <c r="K27" s="40">
+      <c r="K27" s="38">
         <v>41</v>
       </c>
-      <c r="L27" s="40">
+      <c r="L27" s="38">
         <v>7</v>
       </c>
-      <c r="M27" s="40">
+      <c r="M27" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="38">
         <v>11</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="38">
         <v>8</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="38">
         <v>5</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="38">
         <v>5</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H28" s="38">
         <v>20</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="38">
         <v>4</v>
       </c>
-      <c r="J28" s="40">
+      <c r="J28" s="38">
         <v>4</v>
       </c>
-      <c r="K28" s="40">
+      <c r="K28" s="38">
         <v>67</v>
       </c>
-      <c r="L28" s="40">
+      <c r="L28" s="38">
         <v>11</v>
       </c>
-      <c r="M28" s="40">
+      <c r="M28" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1914,39 +1913,39 @@
       <c r="C30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="38">
         <v>107</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="38">
         <v>44</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="38">
         <v>49</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="38">
         <v>32</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="38">
         <v>83</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="38">
         <v>36</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="38">
         <v>77</v>
       </c>
-      <c r="K30" s="40">
+      <c r="K30" s="38">
         <v>260</v>
       </c>
-      <c r="L30" s="40">
+      <c r="L30" s="38">
         <v>60</v>
       </c>
-      <c r="M30" s="40">
+      <c r="M30" s="38">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1955,39 +1954,39 @@
       <c r="C31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="38">
         <v>202</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="38">
         <v>66</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="38">
         <v>97</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="38">
         <v>37</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="38">
         <v>174</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="38">
         <v>60</v>
       </c>
-      <c r="J31" s="40">
+      <c r="J31" s="38">
         <v>127</v>
       </c>
-      <c r="K31" s="40">
+      <c r="K31" s="38">
         <v>427</v>
       </c>
-      <c r="L31" s="40">
+      <c r="L31" s="38">
         <v>113</v>
       </c>
-      <c r="M31" s="40">
+      <c r="M31" s="38">
         <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1996,231 +1995,231 @@
       <c r="C32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="38">
         <v>242</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="38">
         <v>106</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="38">
         <v>106</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="38">
         <v>68</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="38">
         <v>214</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="38">
         <v>82</v>
       </c>
-      <c r="J32" s="40">
+      <c r="J32" s="38">
         <v>168</v>
       </c>
-      <c r="K32" s="40">
+      <c r="K32" s="38">
         <v>732</v>
       </c>
-      <c r="L32" s="40">
+      <c r="L32" s="38">
         <v>158</v>
       </c>
-      <c r="M32" s="40">
+      <c r="M32" s="38">
         <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="40">
+      <c r="D34" s="38">
         <v>48</v>
       </c>
-      <c r="E34" s="40">
+      <c r="E34" s="38">
         <v>23</v>
       </c>
-      <c r="F34" s="40">
+      <c r="F34" s="38">
         <v>32</v>
       </c>
-      <c r="G34" s="40">
+      <c r="G34" s="38">
         <v>20</v>
       </c>
-      <c r="H34" s="40">
+      <c r="H34" s="38">
         <v>65</v>
       </c>
-      <c r="I34" s="40">
+      <c r="I34" s="38">
         <v>26</v>
       </c>
-      <c r="J34" s="40">
+      <c r="J34" s="38">
         <v>40</v>
       </c>
-      <c r="K34" s="40">
+      <c r="K34" s="38">
         <v>168</v>
       </c>
-      <c r="L34" s="40">
+      <c r="L34" s="38">
         <v>53</v>
       </c>
-      <c r="M34" s="40">
+      <c r="M34" s="38">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="38">
         <v>85</v>
       </c>
-      <c r="E35" s="40">
+      <c r="E35" s="38">
         <v>33</v>
       </c>
-      <c r="F35" s="40">
+      <c r="F35" s="38">
         <v>38</v>
       </c>
-      <c r="G35" s="40">
+      <c r="G35" s="38">
         <v>32</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="38">
         <v>72</v>
       </c>
-      <c r="I35" s="40">
+      <c r="I35" s="38">
         <v>38</v>
       </c>
-      <c r="J35" s="40">
+      <c r="J35" s="38">
         <v>63</v>
       </c>
-      <c r="K35" s="40">
+      <c r="K35" s="38">
         <v>242</v>
       </c>
-      <c r="L35" s="40">
+      <c r="L35" s="38">
         <v>51</v>
       </c>
-      <c r="M35" s="40">
+      <c r="M35" s="38">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D36" s="38">
         <v>74</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="38">
         <v>35</v>
       </c>
-      <c r="F36" s="40">
+      <c r="F36" s="38">
         <v>39</v>
       </c>
-      <c r="G36" s="40">
+      <c r="G36" s="38">
         <v>29</v>
       </c>
-      <c r="H36" s="40">
+      <c r="H36" s="38">
         <v>66</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I36" s="38">
         <v>28</v>
       </c>
-      <c r="J36" s="40">
+      <c r="J36" s="38">
         <v>58</v>
       </c>
-      <c r="K36" s="40">
+      <c r="K36" s="38">
         <v>228</v>
       </c>
-      <c r="L36" s="40">
+      <c r="L36" s="38">
         <v>56</v>
       </c>
-      <c r="M36" s="40">
+      <c r="M36" s="38">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D37" s="38">
         <v>72</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E37" s="38">
         <v>32</v>
       </c>
-      <c r="F37" s="40">
+      <c r="F37" s="38">
         <v>35</v>
       </c>
-      <c r="G37" s="40">
+      <c r="G37" s="38">
         <v>27</v>
       </c>
-      <c r="H37" s="40">
+      <c r="H37" s="38">
         <v>59</v>
       </c>
-      <c r="I37" s="40">
+      <c r="I37" s="38">
         <v>26</v>
       </c>
-      <c r="J37" s="40">
+      <c r="J37" s="38">
         <v>51</v>
       </c>
-      <c r="K37" s="40">
+      <c r="K37" s="38">
         <v>200</v>
       </c>
-      <c r="L37" s="40">
+      <c r="L37" s="38">
         <v>51</v>
       </c>
-      <c r="M37" s="40">
+      <c r="M37" s="38">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2229,39 +2228,39 @@
       <c r="C39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="38">
         <v>242</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="38">
         <v>106</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F39" s="38">
         <v>106</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="38">
         <v>68</v>
       </c>
-      <c r="H39" s="40">
+      <c r="H39" s="38">
         <v>214</v>
       </c>
-      <c r="I39" s="40">
+      <c r="I39" s="38">
         <v>82</v>
       </c>
-      <c r="J39" s="40">
+      <c r="J39" s="38">
         <v>168</v>
       </c>
-      <c r="K39" s="40">
+      <c r="K39" s="38">
         <v>732</v>
       </c>
-      <c r="L39" s="40">
+      <c r="L39" s="38">
         <v>158</v>
       </c>
-      <c r="M39" s="40">
+      <c r="M39" s="38">
         <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -2270,367 +2269,367 @@
       <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="38">
         <v>866</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="38">
         <v>678</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F40" s="38">
         <v>265</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="38">
         <v>149</v>
       </c>
-      <c r="H40" s="40">
+      <c r="H40" s="38">
         <v>933</v>
       </c>
-      <c r="I40" s="40">
+      <c r="I40" s="38">
         <v>208</v>
       </c>
-      <c r="J40" s="40">
+      <c r="J40" s="38">
         <v>422</v>
       </c>
-      <c r="K40" s="40">
+      <c r="K40" s="38">
         <v>3819</v>
       </c>
-      <c r="L40" s="40">
+      <c r="L40" s="38">
         <v>704</v>
       </c>
-      <c r="M40" s="40">
+      <c r="M40" s="38">
         <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="43" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="38">
         <v>12</v>
       </c>
-      <c r="E42" s="40">
+      <c r="E42" s="38">
         <v>9</v>
       </c>
-      <c r="F42" s="40">
+      <c r="F42" s="38">
         <v>4</v>
       </c>
-      <c r="G42" s="40">
+      <c r="G42" s="38">
         <v>5</v>
       </c>
-      <c r="H42" s="40">
+      <c r="H42" s="38">
         <v>16</v>
       </c>
-      <c r="I42" s="40">
+      <c r="I42" s="38">
         <v>8</v>
       </c>
-      <c r="J42" s="40">
+      <c r="J42" s="38">
         <v>10</v>
       </c>
-      <c r="K42" s="40">
+      <c r="K42" s="38">
         <v>72</v>
       </c>
-      <c r="L42" s="40">
+      <c r="L42" s="38">
         <v>15</v>
       </c>
-      <c r="M42" s="40">
+      <c r="M42" s="38">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="40">
+      <c r="D43" s="38">
         <v>6</v>
       </c>
-      <c r="E43" s="40">
+      <c r="E43" s="38">
         <v>8</v>
       </c>
-      <c r="F43" s="40">
+      <c r="F43" s="38">
         <v>2</v>
       </c>
-      <c r="G43" s="40">
+      <c r="G43" s="38">
         <v>3</v>
       </c>
-      <c r="H43" s="40">
+      <c r="H43" s="38">
         <v>12</v>
       </c>
-      <c r="I43" s="40">
+      <c r="I43" s="38">
         <v>4</v>
       </c>
-      <c r="J43" s="40">
+      <c r="J43" s="38">
         <v>4</v>
       </c>
-      <c r="K43" s="40">
+      <c r="K43" s="38">
         <v>52</v>
       </c>
-      <c r="L43" s="40">
+      <c r="L43" s="38">
         <v>11</v>
       </c>
-      <c r="M43" s="40">
+      <c r="M43" s="38">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="40">
+      <c r="D44" s="38">
         <v>3</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E44" s="38">
         <v>4</v>
       </c>
-      <c r="F44" s="40">
+      <c r="F44" s="38">
         <v>1</v>
       </c>
-      <c r="G44" s="40">
+      <c r="G44" s="38">
         <v>1</v>
       </c>
-      <c r="H44" s="40">
+      <c r="H44" s="38">
         <v>5</v>
       </c>
-      <c r="I44" s="40">
+      <c r="I44" s="38">
         <v>1</v>
       </c>
-      <c r="J44" s="40">
+      <c r="J44" s="38">
         <v>3</v>
       </c>
-      <c r="K44" s="40">
+      <c r="K44" s="38">
         <v>17</v>
       </c>
-      <c r="L44" s="40">
+      <c r="L44" s="38">
         <v>3</v>
       </c>
-      <c r="M44" s="40">
+      <c r="M44" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="40">
+      <c r="D46" s="38">
         <v>19</v>
       </c>
-      <c r="E46" s="40">
+      <c r="E46" s="38">
         <v>9</v>
       </c>
-      <c r="F46" s="40">
+      <c r="F46" s="38">
         <v>12</v>
       </c>
-      <c r="G46" s="40">
+      <c r="G46" s="38">
         <v>4</v>
       </c>
-      <c r="H46" s="40">
+      <c r="H46" s="38">
         <v>13</v>
       </c>
-      <c r="I46" s="40">
+      <c r="I46" s="38">
         <v>8</v>
       </c>
-      <c r="J46" s="40">
+      <c r="J46" s="38">
         <v>13</v>
       </c>
-      <c r="K46" s="40">
+      <c r="K46" s="38">
         <v>49</v>
       </c>
-      <c r="L46" s="40">
+      <c r="L46" s="38">
         <v>13</v>
       </c>
-      <c r="M46" s="40">
+      <c r="M46" s="38">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="38">
         <v>23</v>
       </c>
-      <c r="E47" s="40">
+      <c r="E47" s="38">
         <v>17</v>
       </c>
-      <c r="F47" s="40">
+      <c r="F47" s="38">
         <v>14</v>
       </c>
-      <c r="G47" s="40">
+      <c r="G47" s="38">
         <v>11</v>
       </c>
-      <c r="H47" s="40">
+      <c r="H47" s="38">
         <v>17</v>
       </c>
-      <c r="I47" s="40">
+      <c r="I47" s="38">
         <v>13</v>
       </c>
-      <c r="J47" s="40">
+      <c r="J47" s="38">
         <v>11</v>
       </c>
-      <c r="K47" s="40">
+      <c r="K47" s="38">
         <v>71</v>
       </c>
-      <c r="L47" s="40">
+      <c r="L47" s="38">
         <v>17</v>
       </c>
-      <c r="M47" s="40">
+      <c r="M47" s="38">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="4"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="40">
+      <c r="D48" s="38">
         <v>13</v>
       </c>
-      <c r="E48" s="40">
+      <c r="E48" s="38">
         <v>11</v>
       </c>
-      <c r="F48" s="40">
+      <c r="F48" s="38">
         <v>5</v>
       </c>
-      <c r="G48" s="40">
+      <c r="G48" s="38">
         <v>6</v>
       </c>
-      <c r="H48" s="40">
+      <c r="H48" s="38">
         <v>14</v>
       </c>
-      <c r="I48" s="40">
+      <c r="I48" s="38">
         <v>11</v>
       </c>
-      <c r="J48" s="40">
+      <c r="J48" s="38">
         <v>10</v>
       </c>
-      <c r="K48" s="40">
+      <c r="K48" s="38">
         <v>52</v>
       </c>
-      <c r="L48" s="40">
+      <c r="L48" s="38">
         <v>13</v>
       </c>
-      <c r="M48" s="40">
+      <c r="M48" s="38">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="40">
+      <c r="D49" s="38">
         <v>13</v>
       </c>
-      <c r="E49" s="40">
+      <c r="E49" s="38">
         <v>11</v>
       </c>
-      <c r="F49" s="40">
+      <c r="F49" s="38">
         <v>5</v>
       </c>
-      <c r="G49" s="40">
+      <c r="G49" s="38">
         <v>7</v>
       </c>
-      <c r="H49" s="40">
+      <c r="H49" s="38">
         <v>16</v>
       </c>
-      <c r="I49" s="40">
+      <c r="I49" s="38">
         <v>11</v>
       </c>
-      <c r="J49" s="40">
+      <c r="J49" s="38">
         <v>9</v>
       </c>
-      <c r="K49" s="40">
+      <c r="K49" s="38">
         <v>49</v>
       </c>
-      <c r="L49" s="40">
+      <c r="L49" s="38">
         <v>13</v>
       </c>
-      <c r="M49" s="40">
+      <c r="M49" s="38">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -2639,39 +2638,39 @@
       <c r="C51" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="40">
+      <c r="D51" s="38">
         <v>109</v>
       </c>
-      <c r="E51" s="40">
+      <c r="E51" s="38">
         <v>43</v>
       </c>
-      <c r="F51" s="40">
+      <c r="F51" s="38">
         <v>49</v>
       </c>
-      <c r="G51" s="40">
+      <c r="G51" s="38">
         <v>33</v>
       </c>
-      <c r="H51" s="40">
+      <c r="H51" s="38">
         <v>97</v>
       </c>
-      <c r="I51" s="40">
+      <c r="I51" s="38">
         <v>39</v>
       </c>
-      <c r="J51" s="40">
+      <c r="J51" s="38">
         <v>77</v>
       </c>
-      <c r="K51" s="40">
+      <c r="K51" s="38">
         <v>296</v>
       </c>
-      <c r="L51" s="40">
+      <c r="L51" s="38">
         <v>68</v>
       </c>
-      <c r="M51" s="40">
+      <c r="M51" s="38">
         <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -2680,34 +2679,34 @@
       <c r="C52" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="40">
+      <c r="D52" s="38">
         <v>53</v>
       </c>
-      <c r="E52" s="40">
+      <c r="E52" s="38">
         <v>23</v>
       </c>
-      <c r="F52" s="40">
+      <c r="F52" s="38">
         <v>28</v>
       </c>
-      <c r="G52" s="40">
+      <c r="G52" s="38">
         <v>24</v>
       </c>
-      <c r="H52" s="40">
+      <c r="H52" s="38">
         <v>61</v>
       </c>
-      <c r="I52" s="40">
+      <c r="I52" s="38">
         <v>27</v>
       </c>
-      <c r="J52" s="40">
+      <c r="J52" s="38">
         <v>39</v>
       </c>
-      <c r="K52" s="40">
+      <c r="K52" s="38">
         <v>148</v>
       </c>
-      <c r="L52" s="40">
+      <c r="L52" s="38">
         <v>40</v>
       </c>
-      <c r="M52" s="40">
+      <c r="M52" s="38">
         <v>31</v>
       </c>
     </row>
